--- a/algorithms/bipartite_and_topsort_tests/fixed_bipartite/topsort averages.xlsx
+++ b/algorithms/bipartite_and_topsort_tests/fixed_bipartite/topsort averages.xlsx
@@ -409,11 +409,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="577792464"/>
-        <c:axId val="630515232"/>
+        <c:axId val="-1574985792"/>
+        <c:axId val="-1574982544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="577792464"/>
+        <c:axId val="-1574985792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -525,12 +525,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630515232"/>
+        <c:crossAx val="-1574982544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="630515232"/>
+        <c:axId val="-1574982544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -647,7 +647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577792464"/>
+        <c:crossAx val="-1574985792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -945,48 +945,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]Sheet6!$I$10:$I$14</c:f>
+              <c:f>Sheet7!$I$15:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Sheet6!$J$10:$J$14</c:f>
+              <c:f>Sheet7!$J$15:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.000392627716064452</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.260498523712158</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>2.10055723190306</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>7.54200205802916</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>16.6766044139862</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.449668741226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.2630167007443</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130.2314914067584</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>253.7325313886007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1105,11 +1129,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="669428640"/>
-        <c:axId val="620685232"/>
+        <c:axId val="-1612702976"/>
+        <c:axId val="-1575132592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="669428640"/>
+        <c:axId val="-1612702976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,6 +1209,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1221,12 +1246,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620685232"/>
+        <c:crossAx val="-1575132592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="620685232"/>
+        <c:axId val="-1575132592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,7 +1368,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669428640"/>
+        <c:crossAx val="-1612702976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1724,11 +1749,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="670123184"/>
-        <c:axId val="636302048"/>
+        <c:axId val="-1580600592"/>
+        <c:axId val="-1652808048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="670123184"/>
+        <c:axId val="-1580600592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1840,12 +1865,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636302048"/>
+        <c:crossAx val="-1652808048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="636302048"/>
+        <c:axId val="-1652808048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1962,7 +1987,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="670123184"/>
+        <c:crossAx val="-1580600592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3814,10 +3839,61 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Sheet5"/>
       <sheetName val="Sheet6"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="10">
+          <cell r="I10">
+            <v>500</v>
+          </cell>
+          <cell r="J10">
+            <v>2.9279708862304599E-3</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="I11">
+            <v>1000</v>
+          </cell>
+          <cell r="J11">
+            <v>6.7660284042358396E-3</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="I12">
+            <v>1500</v>
+          </cell>
+          <cell r="J12">
+            <v>9.0501546859741207E-3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="I13">
+            <v>2000</v>
+          </cell>
+          <cell r="J13">
+            <v>1.496140956878662E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="I14">
+            <v>2500</v>
+          </cell>
+          <cell r="J14">
+            <v>1.6168470382690422E-2</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4228,8 +4304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O64" sqref="O64"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
